--- a/pred_ohlcv/54/2019-11-13 PST ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-13 PST ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -414,18 +419,21 @@
         <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="E2" t="n">
         <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>1183</v>
+        <v>2530.0175</v>
       </c>
       <c r="G2" t="n">
-        <v>47.99</v>
+        <v>47.97666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>48.7</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>48.7</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
-        <v>4674.2925</v>
+        <v>1183</v>
       </c>
       <c r="G3" t="n">
-        <v>48.00166666666667</v>
+        <v>47.99</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>48.8</v>
+        <v>48.1</v>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="E4" t="n">
-        <v>48.4</v>
+        <v>48.1</v>
       </c>
       <c r="F4" t="n">
-        <v>98313.56050000001</v>
+        <v>4674.2925</v>
       </c>
       <c r="G4" t="n">
-        <v>48.03833333333333</v>
+        <v>48.00166666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="C5" t="n">
         <v>49</v>
@@ -498,12 +512,15 @@
         <v>48.4</v>
       </c>
       <c r="F5" t="n">
-        <v>3363</v>
+        <v>98313.56050000001</v>
       </c>
       <c r="G5" t="n">
-        <v>48.06833333333334</v>
+        <v>48.03833333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
-        <v>49.1</v>
+        <v>48.4</v>
       </c>
       <c r="F6" t="n">
-        <v>6537</v>
+        <v>3363</v>
       </c>
       <c r="G6" t="n">
-        <v>48.10333333333334</v>
+        <v>48.06833333333334</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
       <c r="C7" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="D7" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="E7" t="n">
         <v>49.1</v>
       </c>
       <c r="F7" t="n">
-        <v>15184.5368</v>
+        <v>6537</v>
       </c>
       <c r="G7" t="n">
-        <v>48.14</v>
+        <v>48.10333333333334</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="C8" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="D8" t="n">
         <v>49.6</v>
       </c>
       <c r="E8" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="F8" t="n">
-        <v>29018.2855</v>
+        <v>15184.5368</v>
       </c>
       <c r="G8" t="n">
-        <v>48.165</v>
+        <v>48.14</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="C9" t="n">
-        <v>49.9</v>
+        <v>49.2</v>
       </c>
       <c r="D9" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="E9" t="n">
-        <v>49.7</v>
+        <v>49.2</v>
       </c>
       <c r="F9" t="n">
-        <v>3814.6923</v>
+        <v>29018.2855</v>
       </c>
       <c r="G9" t="n">
-        <v>48.20166666666668</v>
+        <v>48.165</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C10" t="n">
         <v>49.9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>49.4</v>
       </c>
       <c r="D10" t="n">
         <v>49.9</v>
       </c>
       <c r="E10" t="n">
-        <v>49.4</v>
+        <v>49.7</v>
       </c>
       <c r="F10" t="n">
-        <v>6427.0905</v>
+        <v>3814.6923</v>
       </c>
       <c r="G10" t="n">
-        <v>48.23000000000001</v>
+        <v>48.20166666666668</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="C11" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="D11" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="E11" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="F11" t="n">
-        <v>21909.7908</v>
+        <v>6427.0905</v>
       </c>
       <c r="G11" t="n">
-        <v>48.26000000000001</v>
+        <v>48.23000000000001</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C12" t="n">
         <v>49.6</v>
       </c>
-      <c r="C12" t="n">
-        <v>49.9</v>
-      </c>
       <c r="D12" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E12" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="F12" t="n">
-        <v>21860.2551</v>
+        <v>21909.7908</v>
       </c>
       <c r="G12" t="n">
-        <v>48.295</v>
+        <v>48.26000000000001</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="C13" t="n">
         <v>49.9</v>
@@ -703,15 +741,18 @@
         <v>49.9</v>
       </c>
       <c r="E13" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="F13" t="n">
-        <v>3.391</v>
+        <v>21860.2551</v>
       </c>
       <c r="G13" t="n">
-        <v>48.33166666666668</v>
+        <v>48.295</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>49.9</v>
       </c>
       <c r="F14" t="n">
-        <v>10.5799</v>
+        <v>3.391</v>
       </c>
       <c r="G14" t="n">
-        <v>48.37166666666668</v>
+        <v>48.33166666666668</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>49.6</v>
+        <v>49.9</v>
       </c>
       <c r="C15" t="n">
-        <v>49.1</v>
+        <v>49.9</v>
       </c>
       <c r="D15" t="n">
-        <v>50.1</v>
+        <v>49.9</v>
       </c>
       <c r="E15" t="n">
-        <v>49.1</v>
+        <v>49.9</v>
       </c>
       <c r="F15" t="n">
-        <v>9102.762500000001</v>
+        <v>10.5799</v>
       </c>
       <c r="G15" t="n">
-        <v>48.39833333333334</v>
+        <v>48.37166666666668</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="C16" t="n">
-        <v>48.4</v>
+        <v>49.1</v>
       </c>
       <c r="D16" t="n">
-        <v>49.3</v>
+        <v>50.1</v>
       </c>
       <c r="E16" t="n">
-        <v>48.4</v>
+        <v>49.1</v>
       </c>
       <c r="F16" t="n">
-        <v>9917.6854</v>
+        <v>9102.762500000001</v>
       </c>
       <c r="G16" t="n">
-        <v>48.41333333333334</v>
+        <v>48.39833333333334</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="C17" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="D17" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="E17" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="F17" t="n">
-        <v>6250</v>
+        <v>9917.6854</v>
       </c>
       <c r="G17" t="n">
-        <v>48.43833333333335</v>
+        <v>48.41333333333334</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,21 +880,24 @@
         <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="D18" t="n">
-        <v>50.2</v>
+        <v>49</v>
       </c>
       <c r="E18" t="n">
-        <v>47.6</v>
+        <v>49</v>
       </c>
       <c r="F18" t="n">
-        <v>47746.4164</v>
+        <v>6250</v>
       </c>
       <c r="G18" t="n">
-        <v>48.44166666666668</v>
+        <v>48.43833333333335</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>48.3</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>48.3</v>
+        <v>47.6</v>
       </c>
       <c r="D19" t="n">
-        <v>48.3</v>
+        <v>50.2</v>
       </c>
       <c r="E19" t="n">
-        <v>48.3</v>
+        <v>47.6</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>47746.4164</v>
       </c>
       <c r="G19" t="n">
-        <v>48.46333333333335</v>
+        <v>48.44166666666668</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="C20" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="D20" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="E20" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="F20" t="n">
-        <v>3000</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>48.48500000000001</v>
+        <v>48.46333333333335</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,21 +967,24 @@
         <v>48.2</v>
       </c>
       <c r="C21" t="n">
-        <v>48.8</v>
+        <v>48.2</v>
       </c>
       <c r="D21" t="n">
-        <v>48.8</v>
+        <v>48.2</v>
       </c>
       <c r="E21" t="n">
         <v>48.2</v>
       </c>
       <c r="F21" t="n">
-        <v>22231</v>
+        <v>3000</v>
       </c>
       <c r="G21" t="n">
-        <v>48.51833333333334</v>
+        <v>48.48500000000001</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="C22" t="n">
-        <v>49.8</v>
+        <v>48.8</v>
       </c>
       <c r="D22" t="n">
-        <v>49.8</v>
+        <v>48.8</v>
       </c>
       <c r="E22" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="F22" t="n">
-        <v>111</v>
+        <v>22231</v>
       </c>
       <c r="G22" t="n">
-        <v>48.56833333333334</v>
+        <v>48.51833333333334</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="C23" t="n">
         <v>49.8</v>
@@ -963,15 +1031,18 @@
         <v>49.8</v>
       </c>
       <c r="E23" t="n">
-        <v>49.2</v>
+        <v>48.9</v>
       </c>
       <c r="F23" t="n">
-        <v>5116.8509</v>
+        <v>111</v>
       </c>
       <c r="G23" t="n">
-        <v>48.62000000000001</v>
+        <v>48.56833333333334</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>49.9</v>
+        <v>49.2</v>
       </c>
       <c r="C24" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="D24" t="n">
-        <v>49.9</v>
+        <v>49.8</v>
       </c>
       <c r="E24" t="n">
-        <v>49.9</v>
+        <v>49.2</v>
       </c>
       <c r="F24" t="n">
-        <v>20819.6684</v>
+        <v>5116.8509</v>
       </c>
       <c r="G24" t="n">
-        <v>48.64000000000001</v>
+        <v>48.62000000000001</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.1</v>
+        <v>49.9</v>
       </c>
       <c r="C25" t="n">
-        <v>48.6</v>
+        <v>49.9</v>
       </c>
       <c r="D25" t="n">
-        <v>49.1</v>
+        <v>49.9</v>
       </c>
       <c r="E25" t="n">
-        <v>48.6</v>
+        <v>49.9</v>
       </c>
       <c r="F25" t="n">
-        <v>3712.7859</v>
+        <v>20819.6684</v>
       </c>
       <c r="G25" t="n">
-        <v>48.62666666666668</v>
+        <v>48.64000000000001</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>48.5</v>
+        <v>49.1</v>
       </c>
       <c r="C26" t="n">
-        <v>48.2</v>
+        <v>48.6</v>
       </c>
       <c r="D26" t="n">
-        <v>48.5</v>
+        <v>49.1</v>
       </c>
       <c r="E26" t="n">
-        <v>48.2</v>
+        <v>48.6</v>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>3712.7859</v>
       </c>
       <c r="G26" t="n">
-        <v>48.59666666666668</v>
+        <v>48.62666666666668</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="C27" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="D27" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="E27" t="n">
-        <v>48.9</v>
+        <v>48.2</v>
       </c>
       <c r="F27" t="n">
-        <v>11.8334</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>48.57833333333335</v>
+        <v>48.59666666666668</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="C28" t="n">
-        <v>48.2</v>
+        <v>48.9</v>
       </c>
       <c r="D28" t="n">
-        <v>48.5</v>
+        <v>48.9</v>
       </c>
       <c r="E28" t="n">
-        <v>48.2</v>
+        <v>48.9</v>
       </c>
       <c r="F28" t="n">
-        <v>72</v>
+        <v>11.8334</v>
       </c>
       <c r="G28" t="n">
-        <v>48.54833333333334</v>
+        <v>48.57833333333335</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="C29" t="n">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="D29" t="n">
-        <v>48.1</v>
+        <v>48.5</v>
       </c>
       <c r="E29" t="n">
-        <v>47.8</v>
+        <v>48.2</v>
       </c>
       <c r="F29" t="n">
-        <v>19230.0765</v>
+        <v>72</v>
       </c>
       <c r="G29" t="n">
-        <v>48.50666666666667</v>
+        <v>48.54833333333334</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="C30" t="n">
-        <v>48.5</v>
+        <v>47.8</v>
       </c>
       <c r="D30" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="E30" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="F30" t="n">
-        <v>36046.2578</v>
+        <v>19230.0765</v>
       </c>
       <c r="G30" t="n">
-        <v>48.48500000000001</v>
+        <v>48.50666666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C31" t="n">
         <v>48.5</v>
       </c>
-      <c r="C31" t="n">
-        <v>48.6</v>
-      </c>
       <c r="D31" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="E31" t="n">
-        <v>48.5</v>
+        <v>48.1</v>
       </c>
       <c r="F31" t="n">
-        <v>26230.6578</v>
+        <v>36046.2578</v>
       </c>
       <c r="G31" t="n">
-        <v>48.46333333333334</v>
+        <v>48.48500000000001</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="C32" t="n">
-        <v>47.9</v>
+        <v>48.6</v>
       </c>
       <c r="D32" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="E32" t="n">
-        <v>47.9</v>
+        <v>48.5</v>
       </c>
       <c r="F32" t="n">
-        <v>10101.3863</v>
+        <v>26230.6578</v>
       </c>
       <c r="G32" t="n">
-        <v>48.43166666666666</v>
+        <v>48.46333333333334</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="C33" t="n">
-        <v>49.1</v>
+        <v>47.9</v>
       </c>
       <c r="D33" t="n">
         <v>49.1</v>
       </c>
       <c r="E33" t="n">
-        <v>49.1</v>
+        <v>47.9</v>
       </c>
       <c r="F33" t="n">
-        <v>400</v>
+        <v>10101.3863</v>
       </c>
       <c r="G33" t="n">
-        <v>48.44666666666667</v>
+        <v>48.43166666666666</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>49.7</v>
+        <v>49.1</v>
       </c>
       <c r="C34" t="n">
-        <v>49.7</v>
+        <v>49.1</v>
       </c>
       <c r="D34" t="n">
-        <v>49.7</v>
+        <v>49.1</v>
       </c>
       <c r="E34" t="n">
-        <v>49.7</v>
+        <v>49.1</v>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="G34" t="n">
-        <v>48.45333333333333</v>
+        <v>48.44666666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C35" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="D35" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E35" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="F35" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G35" t="n">
         <v>48.45333333333333</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="C36" t="n">
-        <v>48.1</v>
+        <v>49.5</v>
       </c>
       <c r="D36" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="E36" t="n">
-        <v>48.1</v>
+        <v>49.5</v>
       </c>
       <c r="F36" t="n">
-        <v>1681</v>
+        <v>22</v>
       </c>
       <c r="G36" t="n">
-        <v>48.42833333333333</v>
+        <v>48.45333333333333</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C37" t="n">
-        <v>49.3</v>
+        <v>48.1</v>
       </c>
       <c r="D37" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="E37" t="n">
-        <v>49.3</v>
+        <v>48.1</v>
       </c>
       <c r="F37" t="n">
-        <v>1111</v>
+        <v>1681</v>
       </c>
       <c r="G37" t="n">
-        <v>48.43333333333333</v>
+        <v>48.42833333333333</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="C38" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="D38" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="E38" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>1111</v>
       </c>
       <c r="G38" t="n">
         <v>48.43333333333333</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>49</v>
       </c>
       <c r="F39" t="n">
-        <v>44.4444</v>
+        <v>100</v>
       </c>
       <c r="G39" t="n">
-        <v>48.44666666666667</v>
+        <v>48.43333333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="C40" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="D40" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="E40" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="F40" t="n">
-        <v>4033.8157</v>
+        <v>44.4444</v>
       </c>
       <c r="G40" t="n">
-        <v>48.46666666666667</v>
+        <v>48.44666666666667</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="C41" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="D41" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="E41" t="n">
-        <v>48.1</v>
+        <v>49.2</v>
       </c>
       <c r="F41" t="n">
-        <v>19913.2477</v>
+        <v>4033.8157</v>
       </c>
       <c r="G41" t="n">
-        <v>48.49166666666667</v>
+        <v>48.46666666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>48.9</v>
+        <v>49.3</v>
       </c>
       <c r="C42" t="n">
-        <v>48.9</v>
+        <v>49.4</v>
       </c>
       <c r="D42" t="n">
-        <v>48.9</v>
+        <v>49.4</v>
       </c>
       <c r="E42" t="n">
-        <v>48.9</v>
+        <v>48.1</v>
       </c>
       <c r="F42" t="n">
-        <v>243.5699</v>
+        <v>19913.2477</v>
       </c>
       <c r="G42" t="n">
-        <v>48.51166666666667</v>
+        <v>48.49166666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,25 +1602,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>47.7</v>
+        <v>48.9</v>
       </c>
       <c r="C43" t="n">
-        <v>47.7</v>
+        <v>48.9</v>
       </c>
       <c r="D43" t="n">
-        <v>47.7</v>
+        <v>48.9</v>
       </c>
       <c r="E43" t="n">
-        <v>47.7</v>
+        <v>48.9</v>
       </c>
       <c r="F43" t="n">
-        <v>7597</v>
+        <v>243.5699</v>
       </c>
       <c r="G43" t="n">
-        <v>48.515</v>
+        <v>48.51166666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1500,25 +1631,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="C44" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="D44" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="E44" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="F44" t="n">
-        <v>6907.291</v>
+        <v>7597</v>
       </c>
       <c r="G44" t="n">
-        <v>48.52666666666666</v>
+        <v>48.515</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1529,21 +1663,24 @@
         <v>47.6</v>
       </c>
       <c r="C45" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="D45" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="E45" t="n">
         <v>47.6</v>
       </c>
       <c r="F45" t="n">
-        <v>22</v>
+        <v>6907.291</v>
       </c>
       <c r="G45" t="n">
         <v>48.52666666666666</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,25 +1689,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>47.8</v>
+        <v>47.6</v>
       </c>
       <c r="C46" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="D46" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="E46" t="n">
-        <v>47.8</v>
+        <v>47.6</v>
       </c>
       <c r="F46" t="n">
         <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>48.52833333333334</v>
+        <v>48.52666666666666</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1581,22 +1721,25 @@
         <v>47.8</v>
       </c>
       <c r="C47" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="D47" t="n">
         <v>47.8</v>
       </c>
       <c r="E47" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="F47" t="n">
-        <v>6178</v>
+        <v>22</v>
       </c>
       <c r="G47" t="n">
-        <v>48.51666666666667</v>
+        <v>48.52833333333334</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1604,25 +1747,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="C48" t="n">
         <v>47.4</v>
       </c>
       <c r="D48" t="n">
-        <v>47.4</v>
+        <v>47.8</v>
       </c>
       <c r="E48" t="n">
         <v>47.4</v>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>6178</v>
       </c>
       <c r="G48" t="n">
-        <v>48.52666666666667</v>
+        <v>48.51666666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1630,25 +1776,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>47.1</v>
+        <v>47.4</v>
       </c>
       <c r="C49" t="n">
-        <v>47.3</v>
+        <v>47.4</v>
       </c>
       <c r="D49" t="n">
-        <v>47.3</v>
+        <v>47.4</v>
       </c>
       <c r="E49" t="n">
-        <v>47.1</v>
+        <v>47.4</v>
       </c>
       <c r="F49" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>48.53333333333334</v>
+        <v>48.52666666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1656,25 +1805,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>47.4</v>
+        <v>47.1</v>
       </c>
       <c r="C50" t="n">
-        <v>47.1</v>
+        <v>47.3</v>
       </c>
       <c r="D50" t="n">
-        <v>47.6</v>
+        <v>47.3</v>
       </c>
       <c r="E50" t="n">
         <v>47.1</v>
       </c>
       <c r="F50" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="G50" t="n">
-        <v>48.52666666666667</v>
+        <v>48.53333333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1682,25 +1834,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>47.2</v>
+        <v>47.4</v>
       </c>
       <c r="C51" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="D51" t="n">
-        <v>47.2</v>
+        <v>47.6</v>
       </c>
       <c r="E51" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="G51" t="n">
-        <v>48.52</v>
+        <v>48.52666666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1708,25 +1863,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="C52" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="D52" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="E52" t="n">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="F52" t="n">
         <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>48.52500000000001</v>
+        <v>48.52</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1734,25 +1892,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="C53" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="D53" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="E53" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="F53" t="n">
         <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>48.51833333333334</v>
+        <v>48.52500000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1760,25 +1921,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="C54" t="n">
-        <v>47.6</v>
+        <v>47.4</v>
       </c>
       <c r="D54" t="n">
-        <v>47.6</v>
+        <v>47.4</v>
       </c>
       <c r="E54" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="F54" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>48.52500000000001</v>
+        <v>48.51833333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1786,7 +1950,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="C55" t="n">
         <v>47.6</v>
@@ -1795,16 +1959,19 @@
         <v>47.6</v>
       </c>
       <c r="E55" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="F55" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G55" t="n">
-        <v>48.52166666666667</v>
+        <v>48.52500000000001</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1815,22 +1982,25 @@
         <v>47.6</v>
       </c>
       <c r="C56" t="n">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
       <c r="D56" t="n">
         <v>47.6</v>
       </c>
       <c r="E56" t="n">
-        <v>47.4</v>
+        <v>47.6</v>
       </c>
       <c r="F56" t="n">
-        <v>5582.0273</v>
+        <v>18</v>
       </c>
       <c r="G56" t="n">
         <v>48.52166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1838,25 +2008,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="C57" t="n">
-        <v>47.7</v>
+        <v>47.4</v>
       </c>
       <c r="D57" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="E57" t="n">
-        <v>47.5</v>
+        <v>47.4</v>
       </c>
       <c r="F57" t="n">
-        <v>5592.3639</v>
+        <v>5582.0273</v>
       </c>
       <c r="G57" t="n">
-        <v>48.52333333333333</v>
+        <v>48.52166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1864,25 +2037,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>47.8</v>
+        <v>47.5</v>
       </c>
       <c r="C58" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="D58" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="E58" t="n">
-        <v>47.8</v>
+        <v>47.5</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>5592.3639</v>
       </c>
       <c r="G58" t="n">
-        <v>48.52500000000001</v>
+        <v>48.52333333333333</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1893,22 +2069,25 @@
         <v>47.8</v>
       </c>
       <c r="C59" t="n">
-        <v>47.2</v>
+        <v>47.8</v>
       </c>
       <c r="D59" t="n">
         <v>47.8</v>
       </c>
       <c r="E59" t="n">
-        <v>47.2</v>
+        <v>47.8</v>
       </c>
       <c r="F59" t="n">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>48.515</v>
+        <v>48.52500000000001</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1916,25 +2095,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C60" t="n">
         <v>47.2</v>
       </c>
-      <c r="C60" t="n">
-        <v>48.1</v>
-      </c>
       <c r="D60" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="E60" t="n">
         <v>47.2</v>
       </c>
       <c r="F60" t="n">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G60" t="n">
-        <v>48.51666666666667</v>
+        <v>48.515</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="C61" t="n">
-        <v>47.7</v>
+        <v>48.1</v>
       </c>
       <c r="D61" t="n">
-        <v>47.7</v>
+        <v>48.1</v>
       </c>
       <c r="E61" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="F61" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="G61" t="n">
-        <v>48.51166666666666</v>
+        <v>48.51666666666667</v>
       </c>
       <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="C62" t="n">
-        <v>47.1</v>
+        <v>47.7</v>
       </c>
       <c r="D62" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="E62" t="n">
-        <v>47.1</v>
+        <v>47.7</v>
       </c>
       <c r="F62" t="n">
-        <v>488</v>
+        <v>11</v>
       </c>
       <c r="G62" t="n">
-        <v>48.49666666666666</v>
+        <v>48.51166666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="C63" t="n">
-        <v>46.8</v>
+        <v>47.1</v>
       </c>
       <c r="D63" t="n">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="E63" t="n">
-        <v>46.8</v>
+        <v>47.1</v>
       </c>
       <c r="F63" t="n">
-        <v>33</v>
+        <v>488</v>
       </c>
       <c r="G63" t="n">
-        <v>48.465</v>
+        <v>48.49666666666666</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>46.9</v>
+        <v>47</v>
       </c>
       <c r="C64" t="n">
-        <v>47.5</v>
+        <v>46.8</v>
       </c>
       <c r="D64" t="n">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="E64" t="n">
-        <v>46.9</v>
+        <v>46.8</v>
       </c>
       <c r="F64" t="n">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="G64" t="n">
-        <v>48.44</v>
+        <v>48.465</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>47.6</v>
+        <v>46.9</v>
       </c>
       <c r="C65" t="n">
-        <v>46.8</v>
+        <v>47.5</v>
       </c>
       <c r="D65" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="E65" t="n">
-        <v>46.8</v>
+        <v>46.9</v>
       </c>
       <c r="F65" t="n">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="G65" t="n">
-        <v>48.40333333333334</v>
+        <v>48.44</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2075,21 +2272,24 @@
         <v>47.6</v>
       </c>
       <c r="C66" t="n">
-        <v>47.1</v>
+        <v>46.8</v>
       </c>
       <c r="D66" t="n">
         <v>47.6</v>
       </c>
       <c r="E66" t="n">
-        <v>47.1</v>
+        <v>46.8</v>
       </c>
       <c r="F66" t="n">
-        <v>532.7226000000001</v>
+        <v>340</v>
       </c>
       <c r="G66" t="n">
-        <v>48.36666666666667</v>
+        <v>48.40333333333334</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>47.3</v>
+        <v>47.6</v>
       </c>
       <c r="C67" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="D67" t="n">
-        <v>47.3</v>
+        <v>47.6</v>
       </c>
       <c r="E67" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="F67" t="n">
-        <v>54</v>
+        <v>532.7226000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>48.335</v>
+        <v>48.36666666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="C68" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="D68" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="E68" t="n">
-        <v>47.7</v>
+        <v>47.2</v>
       </c>
       <c r="F68" t="n">
-        <v>3419</v>
+        <v>54</v>
       </c>
       <c r="G68" t="n">
-        <v>48.31</v>
+        <v>48.335</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="C69" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="D69" t="n">
-        <v>48</v>
+        <v>47.7</v>
       </c>
       <c r="E69" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="F69" t="n">
-        <v>900</v>
+        <v>3419</v>
       </c>
       <c r="G69" t="n">
-        <v>48.27833333333333</v>
+        <v>48.31</v>
       </c>
       <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>48.1</v>
+        <v>47.5</v>
       </c>
       <c r="C70" t="n">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="D70" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="E70" t="n">
-        <v>47.2</v>
+        <v>47.5</v>
       </c>
       <c r="F70" t="n">
-        <v>121</v>
+        <v>900</v>
       </c>
       <c r="G70" t="n">
-        <v>48.24166666666666</v>
+        <v>48.27833333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C71" t="n">
-        <v>49.6</v>
+        <v>47.2</v>
       </c>
       <c r="D71" t="n">
-        <v>49.6</v>
+        <v>48.1</v>
       </c>
       <c r="E71" t="n">
-        <v>48</v>
+        <v>47.2</v>
       </c>
       <c r="F71" t="n">
-        <v>51435.137</v>
+        <v>121</v>
       </c>
       <c r="G71" t="n">
         <v>48.24166666666666</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="C72" t="n">
-        <v>48.2</v>
+        <v>49.6</v>
       </c>
       <c r="D72" t="n">
-        <v>48.2</v>
+        <v>49.6</v>
       </c>
       <c r="E72" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F72" t="n">
-        <v>15</v>
+        <v>51435.137</v>
       </c>
       <c r="G72" t="n">
-        <v>48.21333333333332</v>
+        <v>48.24166666666666</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>49.1</v>
+        <v>48.2</v>
       </c>
       <c r="C73" t="n">
-        <v>49.6</v>
+        <v>48.2</v>
       </c>
       <c r="D73" t="n">
-        <v>49.6</v>
+        <v>48.2</v>
       </c>
       <c r="E73" t="n">
         <v>48.2</v>
       </c>
       <c r="F73" t="n">
-        <v>2636.5135</v>
+        <v>15</v>
       </c>
       <c r="G73" t="n">
-        <v>48.20833333333332</v>
+        <v>48.21333333333332</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="C74" t="n">
         <v>49.6</v>
       </c>
-      <c r="C74" t="n">
-        <v>50</v>
-      </c>
       <c r="D74" t="n">
-        <v>50</v>
+        <v>49.6</v>
       </c>
       <c r="E74" t="n">
-        <v>49.6</v>
+        <v>48.2</v>
       </c>
       <c r="F74" t="n">
-        <v>4731.565</v>
+        <v>2636.5135</v>
       </c>
       <c r="G74" t="n">
-        <v>48.20999999999999</v>
+        <v>48.20833333333332</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,7 +2530,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C75" t="n">
         <v>50</v>
@@ -2315,15 +2539,18 @@
         <v>50</v>
       </c>
       <c r="E75" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="F75" t="n">
-        <v>818.6838</v>
+        <v>4731.565</v>
       </c>
       <c r="G75" t="n">
-        <v>48.22499999999999</v>
+        <v>48.20999999999999</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2559,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>48.4</v>
+        <v>49.5</v>
       </c>
       <c r="C76" t="n">
         <v>50</v>
@@ -2341,15 +2568,18 @@
         <v>50</v>
       </c>
       <c r="E76" t="n">
-        <v>48.4</v>
+        <v>49.5</v>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>818.6838</v>
       </c>
       <c r="G76" t="n">
-        <v>48.25166666666665</v>
+        <v>48.22499999999999</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>49.1</v>
+        <v>48.4</v>
       </c>
       <c r="C77" t="n">
-        <v>47.2</v>
+        <v>50</v>
       </c>
       <c r="D77" t="n">
-        <v>49.2</v>
+        <v>50</v>
       </c>
       <c r="E77" t="n">
-        <v>47.2</v>
+        <v>48.4</v>
       </c>
       <c r="F77" t="n">
-        <v>7604.5639</v>
+        <v>200</v>
       </c>
       <c r="G77" t="n">
-        <v>48.22166666666665</v>
+        <v>48.25166666666665</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>48.4</v>
+        <v>49.1</v>
       </c>
       <c r="C78" t="n">
-        <v>48.4</v>
+        <v>47.2</v>
       </c>
       <c r="D78" t="n">
-        <v>48.4</v>
+        <v>49.2</v>
       </c>
       <c r="E78" t="n">
-        <v>48.4</v>
+        <v>47.2</v>
       </c>
       <c r="F78" t="n">
-        <v>11</v>
+        <v>7604.5639</v>
       </c>
       <c r="G78" t="n">
-        <v>48.23499999999999</v>
+        <v>48.22166666666665</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>48</v>
+        <v>48.4</v>
       </c>
       <c r="C79" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="D79" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="E79" t="n">
-        <v>48</v>
+        <v>48.4</v>
       </c>
       <c r="F79" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G79" t="n">
         <v>48.23499999999999</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>48.4</v>
+        <v>48</v>
       </c>
       <c r="C80" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="D80" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="E80" t="n">
-        <v>48.4</v>
+        <v>48</v>
       </c>
       <c r="F80" t="n">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="G80" t="n">
-        <v>48.23833333333332</v>
+        <v>48.23499999999999</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="C81" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="D81" t="n">
-        <v>49</v>
+        <v>48.4</v>
       </c>
       <c r="E81" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="F81" t="n">
-        <v>2563.8881</v>
+        <v>111</v>
       </c>
       <c r="G81" t="n">
-        <v>48.24166666666665</v>
+        <v>48.23833333333332</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="C82" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="D82" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E82" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="F82" t="n">
-        <v>3733</v>
+        <v>2563.8881</v>
       </c>
       <c r="G82" t="n">
-        <v>48.22666666666665</v>
+        <v>48.24166666666665</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C83" t="n">
-        <v>49.3</v>
+        <v>48.9</v>
       </c>
       <c r="D83" t="n">
-        <v>49.3</v>
+        <v>48.9</v>
       </c>
       <c r="E83" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F83" t="n">
-        <v>1364.4001</v>
+        <v>3733</v>
       </c>
       <c r="G83" t="n">
-        <v>48.21833333333332</v>
+        <v>48.22666666666665</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="C84" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="D84" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="E84" t="n">
-        <v>49.6</v>
+        <v>49</v>
       </c>
       <c r="F84" t="n">
-        <v>11</v>
+        <v>1364.4001</v>
       </c>
       <c r="G84" t="n">
-        <v>48.21333333333332</v>
+        <v>48.21833333333332</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="C85" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="D85" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="E85" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F85" t="n">
-        <v>3568</v>
+        <v>11</v>
       </c>
       <c r="G85" t="n">
-        <v>48.22666666666665</v>
+        <v>48.21333333333332</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="C86" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="D86" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="E86" t="n">
-        <v>48.6</v>
+        <v>49.4</v>
       </c>
       <c r="F86" t="n">
-        <v>18944.4137</v>
+        <v>3568</v>
       </c>
       <c r="G86" t="n">
-        <v>48.24499999999999</v>
+        <v>48.22666666666665</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>48.6</v>
+        <v>49.3</v>
       </c>
       <c r="C87" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="D87" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="E87" t="n">
         <v>48.6</v>
       </c>
       <c r="F87" t="n">
-        <v>51.9831</v>
+        <v>18944.4137</v>
       </c>
       <c r="G87" t="n">
-        <v>48.24833333333332</v>
+        <v>48.24499999999999</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>49.2</v>
+        <v>48.6</v>
       </c>
       <c r="C88" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="D88" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="E88" t="n">
         <v>48.6</v>
       </c>
       <c r="F88" t="n">
-        <v>962.2654</v>
+        <v>51.9831</v>
       </c>
       <c r="G88" t="n">
-        <v>48.26166666666666</v>
+        <v>48.24833333333332</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>48.5</v>
+        <v>49.2</v>
       </c>
       <c r="C89" t="n">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="D89" t="n">
-        <v>48.5</v>
+        <v>49.2</v>
       </c>
       <c r="E89" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>962.2654</v>
       </c>
       <c r="G89" t="n">
-        <v>48.27333333333332</v>
+        <v>48.26166666666666</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="C90" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="D90" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="E90" t="n">
-        <v>48.2</v>
+        <v>48.5</v>
       </c>
       <c r="F90" t="n">
-        <v>1423.4978</v>
+        <v>11</v>
       </c>
       <c r="G90" t="n">
-        <v>48.26833333333332</v>
+        <v>48.27333333333332</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>48.1</v>
+        <v>48.4</v>
       </c>
       <c r="C91" t="n">
-        <v>47.9</v>
+        <v>48.2</v>
       </c>
       <c r="D91" t="n">
-        <v>48.1</v>
+        <v>48.4</v>
       </c>
       <c r="E91" t="n">
-        <v>47.9</v>
+        <v>48.2</v>
       </c>
       <c r="F91" t="n">
-        <v>192.2148</v>
+        <v>1423.4978</v>
       </c>
       <c r="G91" t="n">
-        <v>48.25666666666665</v>
+        <v>48.26833333333332</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="C92" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="D92" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="E92" t="n">
-        <v>47.7</v>
+        <v>47.9</v>
       </c>
       <c r="F92" t="n">
-        <v>18128.2934</v>
+        <v>192.2148</v>
       </c>
       <c r="G92" t="n">
-        <v>48.25333333333332</v>
+        <v>48.25666666666665</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="C93" t="n">
-        <v>47</v>
+        <v>47.7</v>
       </c>
       <c r="D93" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="E93" t="n">
-        <v>47</v>
+        <v>47.7</v>
       </c>
       <c r="F93" t="n">
-        <v>1465.4263</v>
+        <v>18128.2934</v>
       </c>
       <c r="G93" t="n">
-        <v>48.21833333333332</v>
+        <v>48.25333333333332</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>47</v>
+        <v>47.6</v>
       </c>
       <c r="C94" t="n">
         <v>47</v>
       </c>
       <c r="D94" t="n">
-        <v>47</v>
+        <v>47.6</v>
       </c>
       <c r="E94" t="n">
         <v>47</v>
       </c>
       <c r="F94" t="n">
-        <v>818.6838</v>
+        <v>1465.4263</v>
       </c>
       <c r="G94" t="n">
-        <v>48.17333333333332</v>
+        <v>48.21833333333332</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>47.7</v>
+        <v>47</v>
       </c>
       <c r="C95" t="n">
-        <v>47.8</v>
+        <v>47</v>
       </c>
       <c r="D95" t="n">
-        <v>47.8</v>
+        <v>47</v>
       </c>
       <c r="E95" t="n">
-        <v>47.7</v>
+        <v>47</v>
       </c>
       <c r="F95" t="n">
-        <v>2962.2797</v>
+        <v>818.6838</v>
       </c>
       <c r="G95" t="n">
-        <v>48.14499999999999</v>
+        <v>48.17333333333332</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="C96" t="n">
         <v>47.8</v>
@@ -2861,15 +3148,18 @@
         <v>47.8</v>
       </c>
       <c r="E96" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="F96" t="n">
-        <v>16048.9489</v>
+        <v>2962.2797</v>
       </c>
       <c r="G96" t="n">
-        <v>48.13999999999999</v>
+        <v>48.14499999999999</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>48.5</v>
+        <v>47.8</v>
       </c>
       <c r="C97" t="n">
-        <v>49.5</v>
+        <v>47.8</v>
       </c>
       <c r="D97" t="n">
-        <v>49.5</v>
+        <v>47.8</v>
       </c>
       <c r="E97" t="n">
-        <v>48.5</v>
+        <v>47.8</v>
       </c>
       <c r="F97" t="n">
-        <v>4001</v>
+        <v>16048.9489</v>
       </c>
       <c r="G97" t="n">
-        <v>48.14333333333332</v>
+        <v>48.13999999999999</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="C98" t="n">
         <v>49.5</v>
@@ -2913,15 +3206,18 @@
         <v>49.5</v>
       </c>
       <c r="E98" t="n">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="F98" t="n">
-        <v>304</v>
+        <v>4001</v>
       </c>
       <c r="G98" t="n">
-        <v>48.15166666666666</v>
+        <v>48.14333333333332</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>48.2</v>
+        <v>49</v>
       </c>
       <c r="C99" t="n">
-        <v>48.1</v>
+        <v>49.5</v>
       </c>
       <c r="D99" t="n">
-        <v>48.2</v>
+        <v>49.5</v>
       </c>
       <c r="E99" t="n">
-        <v>48.1</v>
+        <v>49</v>
       </c>
       <c r="F99" t="n">
-        <v>20353.9489</v>
+        <v>304</v>
       </c>
       <c r="G99" t="n">
-        <v>48.13666666666666</v>
+        <v>48.15166666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="C100" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="D100" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="E100" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="F100" t="n">
-        <v>30</v>
+        <v>20353.9489</v>
       </c>
       <c r="G100" t="n">
-        <v>48.11666666666666</v>
+        <v>48.13666666666666</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>48.5</v>
       </c>
       <c r="C101" t="n">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="D101" t="n">
         <v>48.5</v>
       </c>
       <c r="E101" t="n">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="F101" t="n">
-        <v>800</v>
+        <v>30</v>
       </c>
       <c r="G101" t="n">
-        <v>48.07999999999999</v>
+        <v>48.11666666666666</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,21 +3316,24 @@
         <v>48.5</v>
       </c>
       <c r="C102" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="D102" t="n">
         <v>48.5</v>
       </c>
       <c r="E102" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="F102" t="n">
-        <v>25.7903</v>
+        <v>800</v>
       </c>
       <c r="G102" t="n">
-        <v>48.07333333333332</v>
+        <v>48.07999999999999</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,7 +3342,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="C103" t="n">
         <v>48.5</v>
@@ -3043,15 +3351,18 @@
         <v>48.5</v>
       </c>
       <c r="E103" t="n">
-        <v>47.2</v>
+        <v>48.5</v>
       </c>
       <c r="F103" t="n">
-        <v>3680.8313</v>
+        <v>25.7903</v>
       </c>
       <c r="G103" t="n">
-        <v>48.08666666666666</v>
+        <v>48.07333333333332</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,7 +3371,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="C104" t="n">
         <v>48.5</v>
@@ -3069,15 +3380,18 @@
         <v>48.5</v>
       </c>
       <c r="E104" t="n">
-        <v>48.5</v>
+        <v>47.2</v>
       </c>
       <c r="F104" t="n">
-        <v>9021.839400000001</v>
+        <v>3680.8313</v>
       </c>
       <c r="G104" t="n">
-        <v>48.10166666666666</v>
+        <v>48.08666666666666</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="C105" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="D105" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="E105" t="n">
-        <v>49.3</v>
+        <v>48.5</v>
       </c>
       <c r="F105" t="n">
-        <v>11</v>
+        <v>9021.839400000001</v>
       </c>
       <c r="G105" t="n">
-        <v>48.12833333333333</v>
+        <v>48.10166666666666</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3115,21 +3432,24 @@
         <v>49.3</v>
       </c>
       <c r="C106" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="D106" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="E106" t="n">
         <v>49.3</v>
       </c>
       <c r="F106" t="n">
-        <v>6943.1207</v>
+        <v>11</v>
       </c>
       <c r="G106" t="n">
-        <v>48.15499999999999</v>
+        <v>48.12833333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="C107" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="D107" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="E107" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="F107" t="n">
-        <v>4937.0478</v>
+        <v>6943.1207</v>
       </c>
       <c r="G107" t="n">
-        <v>48.18999999999999</v>
+        <v>48.15499999999999</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C108" t="n">
         <v>49.5</v>
       </c>
       <c r="D108" t="n">
-        <v>49.8</v>
+        <v>49.5</v>
       </c>
       <c r="E108" t="n">
         <v>49.5</v>
       </c>
       <c r="F108" t="n">
-        <v>8345.9522</v>
+        <v>4937.0478</v>
       </c>
       <c r="G108" t="n">
-        <v>48.22499999999999</v>
+        <v>48.18999999999999</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="C109" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="D109" t="n">
-        <v>49.4</v>
+        <v>49.8</v>
       </c>
       <c r="E109" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="F109" t="n">
-        <v>793.3421</v>
+        <v>8345.9522</v>
       </c>
       <c r="G109" t="n">
-        <v>48.25999999999999</v>
+        <v>48.22499999999999</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>49.4</v>
       </c>
       <c r="F110" t="n">
-        <v>894.8159000000001</v>
+        <v>793.3421</v>
       </c>
       <c r="G110" t="n">
-        <v>48.29833333333332</v>
+        <v>48.25999999999999</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="C111" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="D111" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="E111" t="n">
-        <v>49.9</v>
+        <v>49.4</v>
       </c>
       <c r="F111" t="n">
-        <v>1455.2242</v>
+        <v>894.8159000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>48.34333333333333</v>
+        <v>48.29833333333332</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3271,21 +3606,24 @@
         <v>49.9</v>
       </c>
       <c r="C112" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="D112" t="n">
         <v>49.9</v>
       </c>
       <c r="E112" t="n">
-        <v>48.9</v>
+        <v>49.9</v>
       </c>
       <c r="F112" t="n">
-        <v>1073.6413</v>
+        <v>1455.2242</v>
       </c>
       <c r="G112" t="n">
-        <v>48.37</v>
+        <v>48.34333333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3297,21 +3635,24 @@
         <v>49.9</v>
       </c>
       <c r="C113" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="D113" t="n">
         <v>49.9</v>
       </c>
       <c r="E113" t="n">
-        <v>49.9</v>
+        <v>48.9</v>
       </c>
       <c r="F113" t="n">
-        <v>1319.2072</v>
+        <v>1073.6413</v>
       </c>
       <c r="G113" t="n">
-        <v>48.41166666666666</v>
+        <v>48.37</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>49.9</v>
       </c>
       <c r="F114" t="n">
-        <v>3000</v>
+        <v>1319.2072</v>
       </c>
       <c r="G114" t="n">
-        <v>48.45</v>
+        <v>48.41166666666666</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="C115" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="D115" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="E115" t="n">
         <v>49.9</v>
       </c>
       <c r="F115" t="n">
-        <v>15661.8751</v>
+        <v>3000</v>
       </c>
       <c r="G115" t="n">
-        <v>48.49</v>
+        <v>48.45</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="C116" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="D116" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="E116" t="n">
         <v>49.9</v>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>15661.8751</v>
       </c>
       <c r="G116" t="n">
-        <v>48.53166666666667</v>
+        <v>48.49</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,13 +3760,16 @@
         <v>49.9</v>
       </c>
       <c r="F117" t="n">
-        <v>844.0572</v>
+        <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>48.56833333333334</v>
+        <v>48.53166666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3436,12 +3789,15 @@
         <v>49.9</v>
       </c>
       <c r="F118" t="n">
-        <v>759.8619</v>
+        <v>844.0572</v>
       </c>
       <c r="G118" t="n">
-        <v>48.60333333333334</v>
+        <v>48.56833333333334</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="C119" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="D119" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="E119" t="n">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>759.8619</v>
       </c>
       <c r="G119" t="n">
-        <v>48.64666666666668</v>
+        <v>48.60333333333334</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3485,15 +3844,18 @@
         <v>49.8</v>
       </c>
       <c r="E120" t="n">
-        <v>48.7</v>
+        <v>49.8</v>
       </c>
       <c r="F120" t="n">
-        <v>17335.9909</v>
+        <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>48.67500000000002</v>
+        <v>48.64666666666668</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3511,15 +3873,18 @@
         <v>49.8</v>
       </c>
       <c r="E121" t="n">
-        <v>49.8</v>
+        <v>48.7</v>
       </c>
       <c r="F121" t="n">
-        <v>742.1754</v>
+        <v>17335.9909</v>
       </c>
       <c r="G121" t="n">
-        <v>48.71000000000002</v>
+        <v>48.67500000000002</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="C122" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="D122" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E122" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="F122" t="n">
-        <v>904.9109</v>
+        <v>742.1754</v>
       </c>
       <c r="G122" t="n">
-        <v>48.75333333333335</v>
+        <v>48.71000000000002</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>49.7</v>
       </c>
       <c r="F123" t="n">
-        <v>503.212</v>
+        <v>904.9109</v>
       </c>
       <c r="G123" t="n">
-        <v>48.80166666666668</v>
+        <v>48.75333333333335</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C124" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D124" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E124" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="F124" t="n">
-        <v>17652.7113</v>
+        <v>503.212</v>
       </c>
       <c r="G124" t="n">
-        <v>48.83666666666668</v>
+        <v>48.80166666666668</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>49.2</v>
+        <v>49.6</v>
       </c>
       <c r="C125" t="n">
-        <v>49.2</v>
+        <v>49.6</v>
       </c>
       <c r="D125" t="n">
-        <v>49.2</v>
+        <v>49.6</v>
       </c>
       <c r="E125" t="n">
-        <v>49.2</v>
+        <v>49.6</v>
       </c>
       <c r="F125" t="n">
-        <v>82</v>
+        <v>17652.7113</v>
       </c>
       <c r="G125" t="n">
-        <v>48.87666666666667</v>
+        <v>48.83666666666668</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>49.2</v>
       </c>
       <c r="F126" t="n">
-        <v>2023.9029</v>
+        <v>82</v>
       </c>
       <c r="G126" t="n">
-        <v>48.91166666666667</v>
+        <v>48.87666666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="C127" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="D127" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="E127" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="F127" t="n">
-        <v>800</v>
+        <v>2023.9029</v>
       </c>
       <c r="G127" t="n">
-        <v>48.95166666666668</v>
+        <v>48.91166666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +4067,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="C128" t="n">
         <v>49.6</v>
@@ -3693,15 +4076,18 @@
         <v>49.6</v>
       </c>
       <c r="E128" t="n">
-        <v>49.6</v>
+        <v>49.3</v>
       </c>
       <c r="F128" t="n">
-        <v>1169.1713</v>
+        <v>800</v>
       </c>
       <c r="G128" t="n">
-        <v>48.98333333333334</v>
+        <v>48.95166666666668</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="C129" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="D129" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="E129" t="n">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="F129" t="n">
-        <v>4842.8952</v>
+        <v>1169.1713</v>
       </c>
       <c r="G129" t="n">
-        <v>49.01333333333334</v>
+        <v>48.98333333333334</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C130" t="n">
         <v>49.8</v>
       </c>
-      <c r="C130" t="n">
-        <v>50.4</v>
-      </c>
       <c r="D130" t="n">
-        <v>50.4</v>
+        <v>49.8</v>
       </c>
       <c r="E130" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
       <c r="F130" t="n">
-        <v>13555.4786</v>
+        <v>4842.8952</v>
       </c>
       <c r="G130" t="n">
-        <v>49.06666666666668</v>
+        <v>49.01333333333334</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,7 +4154,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>50.4</v>
+        <v>49.8</v>
       </c>
       <c r="C131" t="n">
         <v>50.4</v>
@@ -3771,15 +4163,18 @@
         <v>50.4</v>
       </c>
       <c r="E131" t="n">
-        <v>50.4</v>
+        <v>49.8</v>
       </c>
       <c r="F131" t="n">
-        <v>90.6262</v>
+        <v>13555.4786</v>
       </c>
       <c r="G131" t="n">
-        <v>49.08000000000002</v>
+        <v>49.06666666666668</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>50.4</v>
       </c>
       <c r="F132" t="n">
-        <v>1200</v>
+        <v>90.6262</v>
       </c>
       <c r="G132" t="n">
-        <v>49.11666666666669</v>
+        <v>49.08000000000002</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>50.4</v>
       </c>
       <c r="F133" t="n">
-        <v>4792.3496</v>
+        <v>1200</v>
       </c>
       <c r="G133" t="n">
-        <v>49.13000000000002</v>
+        <v>49.11666666666669</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="C134" t="n">
-        <v>50.8</v>
+        <v>50.4</v>
       </c>
       <c r="D134" t="n">
-        <v>50.8</v>
+        <v>50.4</v>
       </c>
       <c r="E134" t="n">
-        <v>50.5</v>
+        <v>50.4</v>
       </c>
       <c r="F134" t="n">
-        <v>1409.555</v>
+        <v>4792.3496</v>
       </c>
       <c r="G134" t="n">
-        <v>49.14333333333336</v>
+        <v>49.13000000000002</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3869,21 +4273,24 @@
         <v>50.5</v>
       </c>
       <c r="C135" t="n">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="D135" t="n">
-        <v>50.5</v>
+        <v>50.8</v>
       </c>
       <c r="E135" t="n">
         <v>50.5</v>
       </c>
       <c r="F135" t="n">
-        <v>503.4447</v>
+        <v>1409.555</v>
       </c>
       <c r="G135" t="n">
-        <v>49.15166666666669</v>
+        <v>49.14333333333336</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="C136" t="n">
-        <v>50.2</v>
+        <v>50.5</v>
       </c>
       <c r="D136" t="n">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="E136" t="n">
-        <v>50.2</v>
+        <v>50.5</v>
       </c>
       <c r="F136" t="n">
-        <v>200</v>
+        <v>503.4447</v>
       </c>
       <c r="G136" t="n">
-        <v>49.15500000000002</v>
+        <v>49.15166666666669</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>50.1</v>
+        <v>50.3</v>
       </c>
       <c r="C137" t="n">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="D137" t="n">
-        <v>50.1</v>
+        <v>50.3</v>
       </c>
       <c r="E137" t="n">
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="F137" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G137" t="n">
-        <v>49.20333333333336</v>
+        <v>49.15500000000002</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>50</v>
+        <v>50.1</v>
       </c>
       <c r="C138" t="n">
-        <v>49.8</v>
+        <v>50.1</v>
       </c>
       <c r="D138" t="n">
-        <v>50</v>
+        <v>50.1</v>
       </c>
       <c r="E138" t="n">
-        <v>49.8</v>
+        <v>50.1</v>
       </c>
       <c r="F138" t="n">
-        <v>6300</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>49.22666666666669</v>
+        <v>49.20333333333336</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>50</v>
+      </c>
+      <c r="C139" t="n">
         <v>49.8</v>
       </c>
-      <c r="C139" t="n">
-        <v>49.1</v>
-      </c>
       <c r="D139" t="n">
+        <v>50</v>
+      </c>
+      <c r="E139" t="n">
         <v>49.8</v>
       </c>
-      <c r="E139" t="n">
-        <v>49.1</v>
-      </c>
       <c r="F139" t="n">
-        <v>2420.2245</v>
+        <v>6300</v>
       </c>
       <c r="G139" t="n">
-        <v>49.24000000000002</v>
+        <v>49.22666666666669</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>49.1</v>
+        <v>49.8</v>
       </c>
       <c r="C140" t="n">
         <v>49.1</v>
       </c>
       <c r="D140" t="n">
-        <v>49.1</v>
+        <v>49.8</v>
       </c>
       <c r="E140" t="n">
         <v>49.1</v>
       </c>
       <c r="F140" t="n">
-        <v>3427.8212</v>
+        <v>2420.2245</v>
       </c>
       <c r="G140" t="n">
-        <v>49.25166666666669</v>
+        <v>49.24000000000002</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +4444,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="C141" t="n">
         <v>49.1</v>
@@ -4031,15 +4453,18 @@
         <v>49.1</v>
       </c>
       <c r="E141" t="n">
-        <v>48.9</v>
+        <v>49.1</v>
       </c>
       <c r="F141" t="n">
-        <v>1372.1788</v>
+        <v>3427.8212</v>
       </c>
       <c r="G141" t="n">
-        <v>49.25333333333335</v>
+        <v>49.25166666666669</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,24 +4473,27 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>49.8</v>
+        <v>49</v>
       </c>
       <c r="C142" t="n">
-        <v>49.8</v>
+        <v>49.1</v>
       </c>
       <c r="D142" t="n">
-        <v>49.8</v>
+        <v>49.1</v>
       </c>
       <c r="E142" t="n">
-        <v>49.8</v>
+        <v>48.9</v>
       </c>
       <c r="F142" t="n">
-        <v>496</v>
+        <v>1372.1788</v>
       </c>
       <c r="G142" t="n">
-        <v>49.26833333333335</v>
+        <v>49.25333333333335</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="C143" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="D143" t="n">
-        <v>49.7</v>
+        <v>49.8</v>
       </c>
       <c r="E143" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="F143" t="n">
-        <v>2997</v>
+        <v>496</v>
       </c>
       <c r="G143" t="n">
-        <v>49.27166666666668</v>
+        <v>49.26833333333335</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,7 +4531,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C144" t="n">
         <v>49.5</v>
@@ -4112,12 +4543,15 @@
         <v>49.5</v>
       </c>
       <c r="F144" t="n">
-        <v>19142.9134</v>
+        <v>2997</v>
       </c>
       <c r="G144" t="n">
-        <v>49.27000000000002</v>
+        <v>49.27166666666668</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>49.5</v>
+        <v>49.6</v>
       </c>
       <c r="C145" t="n">
         <v>49.5</v>
       </c>
       <c r="D145" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="E145" t="n">
         <v>49.5</v>
       </c>
       <c r="F145" t="n">
-        <v>9749.144700000001</v>
+        <v>19142.9134</v>
       </c>
       <c r="G145" t="n">
-        <v>49.27166666666668</v>
+        <v>49.27000000000002</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4155,21 +4592,24 @@
         <v>49.5</v>
       </c>
       <c r="C146" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="D146" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="E146" t="n">
         <v>49.5</v>
       </c>
       <c r="F146" t="n">
-        <v>5652</v>
+        <v>9749.144700000001</v>
       </c>
       <c r="G146" t="n">
-        <v>49.27666666666668</v>
+        <v>49.27166666666668</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,7 +4618,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="C147" t="n">
         <v>49.6</v>
@@ -4187,15 +4627,18 @@
         <v>49.6</v>
       </c>
       <c r="E147" t="n">
-        <v>49.6</v>
+        <v>49.5</v>
       </c>
       <c r="F147" t="n">
-        <v>83</v>
+        <v>5652</v>
       </c>
       <c r="G147" t="n">
-        <v>49.28500000000001</v>
+        <v>49.27666666666668</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>49.6</v>
       </c>
       <c r="F148" t="n">
-        <v>1900</v>
+        <v>83</v>
       </c>
       <c r="G148" t="n">
-        <v>49.29500000000001</v>
+        <v>49.28500000000001</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>49.6</v>
       </c>
       <c r="F149" t="n">
-        <v>447.4079</v>
+        <v>1900</v>
       </c>
       <c r="G149" t="n">
-        <v>49.31333333333335</v>
+        <v>49.29500000000001</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>49.6</v>
       </c>
       <c r="F150" t="n">
-        <v>100</v>
+        <v>447.4079</v>
       </c>
       <c r="G150" t="n">
-        <v>49.33666666666668</v>
+        <v>49.31333333333335</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="C151" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="D151" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="E151" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="F151" t="n">
-        <v>266.1145</v>
+        <v>100</v>
       </c>
       <c r="G151" t="n">
-        <v>49.36833333333335</v>
+        <v>49.33666666666668</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4311,21 +4766,24 @@
         <v>49.7</v>
       </c>
       <c r="C152" t="n">
-        <v>49</v>
+        <v>49.8</v>
       </c>
       <c r="D152" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E152" t="n">
         <v>49.7</v>
       </c>
-      <c r="E152" t="n">
-        <v>49</v>
-      </c>
       <c r="F152" t="n">
-        <v>25000</v>
+        <v>266.1145</v>
       </c>
       <c r="G152" t="n">
-        <v>49.39000000000001</v>
+        <v>49.36833333333335</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="C153" t="n">
         <v>49</v>
       </c>
-      <c r="C153" t="n">
-        <v>48.5</v>
-      </c>
       <c r="D153" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="E153" t="n">
         <v>49</v>
       </c>
-      <c r="E153" t="n">
-        <v>48.5</v>
-      </c>
       <c r="F153" t="n">
-        <v>5053.9927</v>
+        <v>25000</v>
       </c>
       <c r="G153" t="n">
-        <v>49.41500000000001</v>
+        <v>49.39000000000001</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="C154" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="D154" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="E154" t="n">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
       <c r="F154" t="n">
-        <v>1000</v>
+        <v>5053.9927</v>
       </c>
       <c r="G154" t="n">
-        <v>49.44666666666669</v>
+        <v>49.41500000000001</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="C155" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D155" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="E155" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="F155" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G155" t="n">
-        <v>49.46666666666668</v>
+        <v>49.44666666666669</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="C156" t="n">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="D156" t="n">
-        <v>49.9</v>
+        <v>49</v>
       </c>
       <c r="E156" t="n">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="F156" t="n">
-        <v>5267.2498</v>
+        <v>900</v>
       </c>
       <c r="G156" t="n">
-        <v>49.50166666666668</v>
+        <v>49.46666666666668</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,21 +4911,24 @@
         <v>49.3</v>
       </c>
       <c r="C157" t="n">
-        <v>49.3</v>
+        <v>49.9</v>
       </c>
       <c r="D157" t="n">
-        <v>49.3</v>
+        <v>49.9</v>
       </c>
       <c r="E157" t="n">
         <v>49.3</v>
       </c>
       <c r="F157" t="n">
-        <v>18</v>
+        <v>5267.2498</v>
       </c>
       <c r="G157" t="n">
-        <v>49.49833333333335</v>
+        <v>49.50166666666668</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="C158" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="D158" t="n">
-        <v>49.5</v>
+        <v>49.3</v>
       </c>
       <c r="E158" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="F158" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G158" t="n">
         <v>49.49833333333335</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,24 +4966,27 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C159" t="n">
         <v>49.5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>49.3</v>
       </c>
       <c r="D159" t="n">
         <v>49.5</v>
       </c>
       <c r="E159" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="F159" t="n">
-        <v>447.408</v>
+        <v>22</v>
       </c>
       <c r="G159" t="n">
-        <v>49.51833333333335</v>
+        <v>49.49833333333335</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="C160" t="n">
         <v>49.3</v>
       </c>
       <c r="D160" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="E160" t="n">
         <v>49.3</v>
       </c>
       <c r="F160" t="n">
-        <v>2000</v>
+        <v>447.408</v>
       </c>
       <c r="G160" t="n">
-        <v>49.54000000000003</v>
+        <v>49.51833333333335</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>49.7</v>
+        <v>49.3</v>
       </c>
       <c r="C161" t="n">
-        <v>49.7</v>
+        <v>49.3</v>
       </c>
       <c r="D161" t="n">
-        <v>49.7</v>
+        <v>49.3</v>
       </c>
       <c r="E161" t="n">
-        <v>49.7</v>
+        <v>49.3</v>
       </c>
       <c r="F161" t="n">
-        <v>136.5265</v>
+        <v>2000</v>
       </c>
       <c r="G161" t="n">
-        <v>49.58166666666669</v>
+        <v>49.54000000000003</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C162" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D162" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="E162" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="F162" t="n">
-        <v>129.9787</v>
+        <v>136.5265</v>
       </c>
       <c r="G162" t="n">
-        <v>49.60000000000002</v>
+        <v>49.58166666666669</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="C163" t="n">
-        <v>48</v>
+        <v>49.6</v>
       </c>
       <c r="D163" t="n">
-        <v>48.9</v>
+        <v>49.6</v>
       </c>
       <c r="E163" t="n">
-        <v>48</v>
+        <v>49.6</v>
       </c>
       <c r="F163" t="n">
-        <v>17493.4956</v>
+        <v>129.9787</v>
       </c>
       <c r="G163" t="n">
-        <v>49.59166666666669</v>
+        <v>49.60000000000002</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C164" t="n">
         <v>48</v>
       </c>
-      <c r="C164" t="n">
-        <v>47.2</v>
-      </c>
       <c r="D164" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E164" t="n">
         <v>48</v>
       </c>
-      <c r="E164" t="n">
-        <v>47.2</v>
-      </c>
       <c r="F164" t="n">
-        <v>4000</v>
+        <v>17493.4956</v>
       </c>
       <c r="G164" t="n">
-        <v>49.57000000000002</v>
+        <v>49.59166666666669</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>48.7</v>
+        <v>48</v>
       </c>
       <c r="C165" t="n">
-        <v>48.7</v>
+        <v>47.2</v>
       </c>
       <c r="D165" t="n">
-        <v>48.7</v>
+        <v>48</v>
       </c>
       <c r="E165" t="n">
-        <v>48.7</v>
+        <v>47.2</v>
       </c>
       <c r="F165" t="n">
-        <v>1257.9675</v>
+        <v>4000</v>
       </c>
       <c r="G165" t="n">
-        <v>49.56000000000002</v>
+        <v>49.57000000000002</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>48.7</v>
       </c>
       <c r="F166" t="n">
-        <v>14</v>
+        <v>1257.9675</v>
       </c>
       <c r="G166" t="n">
-        <v>49.54833333333334</v>
+        <v>49.56000000000002</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>47.7</v>
+        <v>48.7</v>
       </c>
       <c r="C167" t="n">
-        <v>47.7</v>
+        <v>48.7</v>
       </c>
       <c r="D167" t="n">
-        <v>47.7</v>
+        <v>48.7</v>
       </c>
       <c r="E167" t="n">
-        <v>47.7</v>
+        <v>48.7</v>
       </c>
       <c r="F167" t="n">
-        <v>742.1754</v>
+        <v>14</v>
       </c>
       <c r="G167" t="n">
-        <v>49.51833333333334</v>
+        <v>49.54833333333334</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="C168" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="D168" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="E168" t="n">
-        <v>48.3</v>
+        <v>47.7</v>
       </c>
       <c r="F168" t="n">
-        <v>1476.1303</v>
+        <v>742.1754</v>
       </c>
       <c r="G168" t="n">
-        <v>49.49833333333334</v>
+        <v>49.51833333333334</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>48.3</v>
       </c>
       <c r="F169" t="n">
-        <v>1046.2846</v>
+        <v>1476.1303</v>
       </c>
       <c r="G169" t="n">
-        <v>49.48000000000001</v>
+        <v>49.49833333333334</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5297,15 @@
         <v>48.3</v>
       </c>
       <c r="F170" t="n">
-        <v>52.489</v>
+        <v>1046.2846</v>
       </c>
       <c r="G170" t="n">
-        <v>49.46166666666668</v>
+        <v>49.48000000000001</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>48.3</v>
       </c>
       <c r="F171" t="n">
-        <v>5174.3933</v>
+        <v>52.489</v>
       </c>
       <c r="G171" t="n">
-        <v>49.43500000000002</v>
+        <v>49.46166666666668</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,544 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="C172" t="n">
-        <v>47.1</v>
+        <v>48.3</v>
       </c>
       <c r="D172" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="E172" t="n">
-        <v>47.1</v>
+        <v>48.3</v>
       </c>
       <c r="F172" t="n">
-        <v>6000</v>
+        <v>5174.3933</v>
       </c>
       <c r="G172" t="n">
-        <v>49.40500000000001</v>
+        <v>49.43500000000002</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>48</v>
-      </c>
-      <c r="C173" t="n">
-        <v>48</v>
-      </c>
-      <c r="D173" t="n">
-        <v>48</v>
-      </c>
-      <c r="E173" t="n">
-        <v>48</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1249.6458</v>
-      </c>
-      <c r="G173" t="n">
-        <v>49.37333333333334</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>48</v>
-      </c>
-      <c r="C174" t="n">
-        <v>48</v>
-      </c>
-      <c r="D174" t="n">
-        <v>48</v>
-      </c>
-      <c r="E174" t="n">
-        <v>48</v>
-      </c>
-      <c r="F174" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G174" t="n">
-        <v>49.34166666666668</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>48</v>
-      </c>
-      <c r="C175" t="n">
-        <v>48</v>
-      </c>
-      <c r="D175" t="n">
-        <v>48</v>
-      </c>
-      <c r="E175" t="n">
-        <v>48</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1745</v>
-      </c>
-      <c r="G175" t="n">
-        <v>49.30833333333334</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>48</v>
-      </c>
-      <c r="C176" t="n">
-        <v>48</v>
-      </c>
-      <c r="D176" t="n">
-        <v>48</v>
-      </c>
-      <c r="E176" t="n">
-        <v>48</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2208</v>
-      </c>
-      <c r="G176" t="n">
-        <v>49.27666666666667</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>48</v>
-      </c>
-      <c r="C177" t="n">
-        <v>49</v>
-      </c>
-      <c r="D177" t="n">
-        <v>49</v>
-      </c>
-      <c r="E177" t="n">
-        <v>48</v>
-      </c>
-      <c r="F177" t="n">
-        <v>59211.5777</v>
-      </c>
-      <c r="G177" t="n">
-        <v>49.26166666666667</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>49</v>
-      </c>
-      <c r="C178" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D178" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="E178" t="n">
-        <v>49</v>
-      </c>
-      <c r="F178" t="n">
-        <v>145066.2801</v>
-      </c>
-      <c r="G178" t="n">
-        <v>49.26166666666667</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C179" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D179" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E179" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F179" t="n">
-        <v>72508.5998</v>
-      </c>
-      <c r="G179" t="n">
-        <v>49.27333333333333</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="C180" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="D180" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="E180" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="F180" t="n">
-        <v>998.5</v>
-      </c>
-      <c r="G180" t="n">
-        <v>49.27166666666666</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="C181" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D181" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E181" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F181" t="n">
-        <v>11</v>
-      </c>
-      <c r="G181" t="n">
-        <v>49.28166666666666</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="C182" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="D182" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="E182" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="F182" t="n">
-        <v>11</v>
-      </c>
-      <c r="G182" t="n">
-        <v>49.29166666666666</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="C183" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="D183" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="E183" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="F183" t="n">
-        <v>2913.0979</v>
-      </c>
-      <c r="G183" t="n">
-        <v>49.30166666666667</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="C184" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D184" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E184" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1308.0305</v>
-      </c>
-      <c r="G184" t="n">
-        <v>49.31500000000001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="C185" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="D185" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="E185" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F185" t="n">
-        <v>15793.1298</v>
-      </c>
-      <c r="G185" t="n">
-        <v>49.32666666666668</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>50</v>
-      </c>
-      <c r="C186" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D186" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E186" t="n">
-        <v>50</v>
-      </c>
-      <c r="F186" t="n">
-        <v>253.8702</v>
-      </c>
-      <c r="G186" t="n">
-        <v>49.34833333333335</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>50</v>
-      </c>
-      <c r="C187" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D187" t="n">
-        <v>50</v>
-      </c>
-      <c r="E187" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F187" t="n">
-        <v>362.608</v>
-      </c>
-      <c r="G187" t="n">
-        <v>49.35166666666669</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="C188" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D188" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="E188" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F188" t="n">
-        <v>9033.593500000001</v>
-      </c>
-      <c r="G188" t="n">
-        <v>49.32666666666669</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C189" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="D189" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="E189" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F189" t="n">
-        <v>30091.4703</v>
-      </c>
-      <c r="G189" t="n">
-        <v>49.30333333333336</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C190" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="D190" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="E190" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="F190" t="n">
-        <v>31235.6444</v>
-      </c>
-      <c r="G190" t="n">
-        <v>49.25333333333335</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C191" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D191" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E191" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F191" t="n">
-        <v>5752.9599</v>
-      </c>
-      <c r="G191" t="n">
-        <v>49.21500000000002</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="C192" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="D192" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E192" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="F192" t="n">
-        <v>800</v>
-      </c>
-      <c r="G192" t="n">
-        <v>49.17666666666668</v>
-      </c>
-      <c r="H192" t="n">
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
